--- a/KURSAACH/KURSAACH/bin/Debug/das.xlsx
+++ b/KURSAACH/KURSAACH/bin/Debug/das.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID_Client</t>
   </si>
@@ -24,12 +24,6 @@
   </si>
   <si>
     <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -79,7 +73,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,66 +100,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>-2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>-3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <headerFooter/>
